--- a/out/Frisksnit/Frisksnit Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik februar 2024.xlsx
+++ b/out/Frisksnit/Frisksnit Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik februar 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -793,7 +793,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -808,9 +808,6 @@
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
   </si>
   <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
   </si>
   <si>
@@ -820,16 +817,13 @@
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -855,7 +849,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,7 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -935,11 +929,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5F94AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -987,7 +976,7 @@
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1068,10 +1057,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1079,11 +1064,11 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1091,30 +1076,35 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4018,7 +4008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2241FB4-AD60-4E53-BAB3-F9D05CFD04A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CFF61E-D395-4509-8E15-7FFEDB89A94E}">
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
@@ -4374,7 +4364,7 @@
       <c r="G16" s="32">
         <v>76.89</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="45" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4428,9 +4418,6 @@
       <c r="G18" s="32">
         <v>62.37</v>
       </c>
-      <c r="H18" s="49" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="34" t="s">
@@ -5183,7 +5170,7 @@
       <c r="B50" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="37" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="29">
@@ -5207,7 +5194,7 @@
       <c r="B51" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="37" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="29">
@@ -5231,7 +5218,7 @@
       <c r="B52" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="37" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="29">
@@ -5324,7 +5311,7 @@
       <c r="A56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="44">
+      <c r="B56" s="42">
         <v>3100</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -5332,11 +5319,11 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="45">
+      <c r="F56" s="43">
         <f>SUM(F7:F55)</f>
         <v>1018</v>
       </c>
-      <c r="G56" s="46">
+      <c r="G56" s="44">
         <f>SUM(G7:G55)</f>
         <v>52444.229999999996</v>
       </c>
@@ -5996,7 +5983,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="45" t="s">
         <v>186</v>
       </c>
       <c r="B85" s="26" t="s">
@@ -6554,7 +6541,7 @@
       <c r="B108" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="48" t="s">
+      <c r="C108" s="46" t="s">
         <v>237</v>
       </c>
       <c r="D108" s="29">
@@ -6575,7 +6562,7 @@
       <c r="A109" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="44">
+      <c r="B109" s="42">
         <v>3100</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -6583,11 +6570,11 @@
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="45">
+      <c r="F109" s="43">
         <f>SUM(F59:F108)</f>
         <v>2460</v>
       </c>
-      <c r="G109" s="46">
+      <c r="G109" s="44">
         <f>SUM(G59:G108)</f>
         <v>82431.98000000003</v>
       </c>
@@ -6606,11 +6593,11 @@
       <c r="E111" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F111" s="50">
+      <c r="F111" s="48">
         <f>+F56+F109</f>
         <v>3478</v>
       </c>
-      <c r="G111" s="51">
+      <c r="G111" s="49">
         <f>+G56+G109</f>
         <v>134876.21000000002</v>
       </c>
@@ -6623,11 +6610,11 @@
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="12"/>
-      <c r="F112" s="52">
+      <c r="F112" s="50">
         <f>+F109/F111</f>
         <v>0.7073030477285797</v>
       </c>
-      <c r="G112" s="52">
+      <c r="G112" s="50">
         <f>+G109/G111</f>
         <v>0.6111676773835802</v>
       </c>
@@ -6639,7 +6626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD788201-D79D-409B-85FA-92FE7E4675D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73478E68-8DAF-4D84-AAB8-97CB3F8FD1EC}">
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
@@ -6692,20 +6679,20 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="D6" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="F6" s="58" t="s">
         <v>261</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>262</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -6715,10 +6702,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
@@ -6727,7 +6714,7 @@
       <c r="E7" s="59">
         <v>5</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="61">
         <f>+D7*E7</f>
         <v>25</v>
       </c>
@@ -6739,10 +6726,10 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1">
@@ -6751,7 +6738,7 @@
       <c r="E8" s="59">
         <v>2</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="61">
         <f ref="F8:F55" t="shared" si="0">+D8*E8</f>
         <v>10</v>
       </c>
@@ -6763,10 +6750,10 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1">
@@ -6775,7 +6762,7 @@
       <c r="E9" s="59">
         <v>14</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="61">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -6787,10 +6774,10 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1">
@@ -6799,7 +6786,7 @@
       <c r="E10" s="59">
         <v>6</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="61">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -6811,10 +6798,10 @@
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1">
@@ -6823,7 +6810,7 @@
       <c r="E11" s="59">
         <v>1</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6835,10 +6822,10 @@
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1">
@@ -6847,7 +6834,7 @@
       <c r="E12" s="59">
         <v>8</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="61">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -6859,10 +6846,10 @@
       <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1">
@@ -6871,7 +6858,7 @@
       <c r="E13" s="59">
         <v>1</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6883,10 +6870,10 @@
       <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="1">
@@ -6895,7 +6882,7 @@
       <c r="E14" s="59">
         <v>1</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -6907,10 +6894,10 @@
       <c r="A15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1">
@@ -6919,7 +6906,7 @@
       <c r="E15" s="59">
         <v>1</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6931,10 +6918,10 @@
       <c r="A16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="56" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="1">
@@ -6943,7 +6930,7 @@
       <c r="E16" s="59">
         <v>1</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -6955,10 +6942,10 @@
       <c r="A17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="1">
@@ -6967,7 +6954,7 @@
       <c r="E17" s="59">
         <v>6</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -6979,10 +6966,10 @@
       <c r="A18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="56" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="1">
@@ -6991,7 +6978,7 @@
       <c r="E18" s="59">
         <v>1</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7003,10 +6990,10 @@
       <c r="A19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="56" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="1">
@@ -7015,7 +7002,7 @@
       <c r="E19" s="59">
         <v>2</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="61">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7027,10 +7014,10 @@
       <c r="A20" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="1">
@@ -7039,7 +7026,7 @@
       <c r="E20" s="59">
         <v>15</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="61">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -7051,10 +7038,10 @@
       <c r="A21" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="56" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="1">
@@ -7063,7 +7050,7 @@
       <c r="E21" s="59">
         <v>13</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="61">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -7075,10 +7062,10 @@
       <c r="A22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="56" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
@@ -7087,7 +7074,7 @@
       <c r="E22" s="59">
         <v>4</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="61">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -7099,10 +7086,10 @@
       <c r="A23" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="1">
@@ -7111,7 +7098,7 @@
       <c r="E23" s="59">
         <v>9</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="61">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -7123,10 +7110,10 @@
       <c r="A24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="1">
@@ -7135,7 +7122,7 @@
       <c r="E24" s="59">
         <v>10</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -7147,10 +7134,10 @@
       <c r="A25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="1">
@@ -7159,7 +7146,7 @@
       <c r="E25" s="59">
         <v>4</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="61">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -7171,10 +7158,10 @@
       <c r="A26" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="56" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="1">
@@ -7183,7 +7170,7 @@
       <c r="E26" s="59">
         <v>1</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7195,10 +7182,10 @@
       <c r="A27" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="56" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="1">
@@ -7207,7 +7194,7 @@
       <c r="E27" s="59">
         <v>2</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7219,10 +7206,10 @@
       <c r="A28" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="56" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="1">
@@ -7231,7 +7218,7 @@
       <c r="E28" s="59">
         <v>6</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -7243,10 +7230,10 @@
       <c r="A29" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="56" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="1">
@@ -7255,7 +7242,7 @@
       <c r="E29" s="59">
         <v>1</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7267,10 +7254,10 @@
       <c r="A30" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="56" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="1">
@@ -7279,7 +7266,7 @@
       <c r="E30" s="59">
         <v>1</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7291,10 +7278,10 @@
       <c r="A31" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="56" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="1">
@@ -7303,7 +7290,7 @@
       <c r="E31" s="59">
         <v>2</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7315,10 +7302,10 @@
       <c r="A32" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="56" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="1">
@@ -7327,7 +7314,7 @@
       <c r="E32" s="59">
         <v>4</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7339,10 +7326,10 @@
       <c r="A33" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="56" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="1">
@@ -7351,7 +7338,7 @@
       <c r="E33" s="59">
         <v>2</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="61">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7363,10 +7350,10 @@
       <c r="A34" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="56" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="1">
@@ -7375,7 +7362,7 @@
       <c r="E34" s="59">
         <v>1</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7387,10 +7374,10 @@
       <c r="A35" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="56" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="1">
@@ -7399,7 +7386,7 @@
       <c r="E35" s="59">
         <v>8</v>
       </c>
-      <c r="F35" s="60">
+      <c r="F35" s="61">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -7408,14 +7395,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="B36" s="61" t="s">
+      <c r="A36" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="63" t="s">
-        <v>262</v>
+      <c r="C36" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="D36" s="1">
         <v>1.5</v>
@@ -7423,7 +7410,7 @@
       <c r="E36" s="59">
         <v>8</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="61">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -7435,10 +7422,10 @@
       <c r="A37" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="56" t="s">
         <v>83</v>
       </c>
       <c r="D37" s="1">
@@ -7447,7 +7434,7 @@
       <c r="E37" s="59">
         <v>1</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7459,10 +7446,10 @@
       <c r="A38" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="56" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="1">
@@ -7471,7 +7458,7 @@
       <c r="E38" s="59">
         <v>1</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7483,10 +7470,10 @@
       <c r="A39" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="56" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="1">
@@ -7495,7 +7482,7 @@
       <c r="E39" s="59">
         <v>8</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="61">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -7507,10 +7494,10 @@
       <c r="A40" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="56" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="1">
@@ -7519,7 +7506,7 @@
       <c r="E40" s="59">
         <v>7</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="61">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -7531,10 +7518,10 @@
       <c r="A41" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="56" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="1">
@@ -7543,7 +7530,7 @@
       <c r="E41" s="59">
         <v>2</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="61">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7555,10 +7542,10 @@
       <c r="A42" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="56" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="1">
@@ -7567,7 +7554,7 @@
       <c r="E42" s="59">
         <v>2</v>
       </c>
-      <c r="F42" s="60">
+      <c r="F42" s="61">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7579,10 +7566,10 @@
       <c r="A43" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="56" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="1">
@@ -7591,7 +7578,7 @@
       <c r="E43" s="59">
         <v>2</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="61">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7603,10 +7590,10 @@
       <c r="A44" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="56" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="1">
@@ -7615,7 +7602,7 @@
       <c r="E44" s="59">
         <v>1</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7627,10 +7614,10 @@
       <c r="A45" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="56" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="1">
@@ -7639,7 +7626,7 @@
       <c r="E45" s="59">
         <v>1</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7651,10 +7638,10 @@
       <c r="A46" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="56" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="1">
@@ -7663,7 +7650,7 @@
       <c r="E46" s="59">
         <v>1</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7675,10 +7662,10 @@
       <c r="A47" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="56" t="s">
         <v>106</v>
       </c>
       <c r="D47" s="1">
@@ -7687,7 +7674,7 @@
       <c r="E47" s="59">
         <v>1</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7699,10 +7686,10 @@
       <c r="A48" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="56" t="s">
         <v>109</v>
       </c>
       <c r="D48" s="1">
@@ -7711,7 +7698,7 @@
       <c r="E48" s="59">
         <v>13</v>
       </c>
-      <c r="F48" s="60">
+      <c r="F48" s="61">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -7723,10 +7710,10 @@
       <c r="A49" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="56" t="s">
         <v>111</v>
       </c>
       <c r="D49" s="1">
@@ -7735,7 +7722,7 @@
       <c r="E49" s="59">
         <v>3</v>
       </c>
-      <c r="F49" s="60">
+      <c r="F49" s="61">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7747,19 +7734,19 @@
       <c r="A50" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="56" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="59">
         <v>2</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7771,19 +7758,19 @@
       <c r="A51" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="56" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
       </c>
-      <c r="E51" s="5">
-        <v>3</v>
-      </c>
-      <c r="F51" s="5">
+      <c r="E51" s="59">
+        <v>3</v>
+      </c>
+      <c r="F51" s="61">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -7795,19 +7782,19 @@
       <c r="A52" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="1">
         <v>5</v>
       </c>
-      <c r="E52" s="5">
-        <v>3</v>
-      </c>
-      <c r="F52" s="5">
+      <c r="E52" s="59">
+        <v>3</v>
+      </c>
+      <c r="F52" s="61">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7819,19 +7806,19 @@
       <c r="A53" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="56" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
-      <c r="F53" s="5">
+      <c r="E53" s="59">
+        <v>1</v>
+      </c>
+      <c r="F53" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7843,19 +7830,19 @@
       <c r="A54" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="56" t="s">
         <v>123</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="59">
         <v>6</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="61">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -7867,19 +7854,19 @@
       <c r="A55" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="56" t="s">
         <v>126</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="59">
         <v>450</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="61">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -7891,15 +7878,15 @@
       <c r="A56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="54">
         <v>3100</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="57" t="s">
         <v>128</v>
       </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="6">
+      <c r="E56" s="60"/>
+      <c r="F56" s="62">
         <f>SUM(F7:F55)</f>
         <v>1018</v>
       </c>
@@ -7919,20 +7906,20 @@
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="C58" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="51" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="58" t="s">
         <v>261</v>
-      </c>
-      <c r="F58" s="58" t="s">
-        <v>262</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>10</v>
@@ -7942,10 +7929,10 @@
       <c r="A59" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="56" t="s">
         <v>131</v>
       </c>
       <c r="D59" s="1">
@@ -7954,7 +7941,7 @@
       <c r="E59" s="59">
         <v>202</v>
       </c>
-      <c r="F59" s="60">
+      <c r="F59" s="61">
         <f ref="F59:F108" t="shared" si="1">+D59*E59</f>
         <v>1010</v>
       </c>
@@ -7966,10 +7953,10 @@
       <c r="A60" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="56" t="s">
         <v>133</v>
       </c>
       <c r="D60" s="1">
@@ -7978,7 +7965,7 @@
       <c r="E60" s="59">
         <v>6</v>
       </c>
-      <c r="F60" s="60">
+      <c r="F60" s="61">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -7990,10 +7977,10 @@
       <c r="A61" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="56" t="s">
         <v>135</v>
       </c>
       <c r="D61" s="1">
@@ -8002,7 +7989,7 @@
       <c r="E61" s="59">
         <v>1</v>
       </c>
-      <c r="F61" s="60">
+      <c r="F61" s="61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8014,10 +8001,10 @@
       <c r="A62" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="56" t="s">
         <v>137</v>
       </c>
       <c r="D62" s="1">
@@ -8026,7 +8013,7 @@
       <c r="E62" s="59">
         <v>10</v>
       </c>
-      <c r="F62" s="60">
+      <c r="F62" s="61">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -8038,10 +8025,10 @@
       <c r="A63" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="56" t="s">
         <v>139</v>
       </c>
       <c r="D63" s="1">
@@ -8050,7 +8037,7 @@
       <c r="E63" s="59">
         <v>1</v>
       </c>
-      <c r="F63" s="60">
+      <c r="F63" s="61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8062,10 +8049,10 @@
       <c r="A64" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="56" t="s">
         <v>141</v>
       </c>
       <c r="D64" s="1">
@@ -8074,7 +8061,7 @@
       <c r="E64" s="59">
         <v>3</v>
       </c>
-      <c r="F64" s="60">
+      <c r="F64" s="61">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -8086,10 +8073,10 @@
       <c r="A65" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D65" s="1">
@@ -8098,7 +8085,7 @@
       <c r="E65" s="59">
         <v>1</v>
       </c>
-      <c r="F65" s="60">
+      <c r="F65" s="61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8110,10 +8097,10 @@
       <c r="A66" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="56" t="s">
         <v>146</v>
       </c>
       <c r="D66" s="1">
@@ -8122,7 +8109,7 @@
       <c r="E66" s="59">
         <v>9</v>
       </c>
-      <c r="F66" s="60">
+      <c r="F66" s="61">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -8134,10 +8121,10 @@
       <c r="A67" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="57" t="s">
+      <c r="C67" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D67" s="1">
@@ -8146,7 +8133,7 @@
       <c r="E67" s="59">
         <v>6</v>
       </c>
-      <c r="F67" s="60">
+      <c r="F67" s="61">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -8158,10 +8145,10 @@
       <c r="A68" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="56" t="s">
         <v>150</v>
       </c>
       <c r="D68" s="1">
@@ -8170,7 +8157,7 @@
       <c r="E68" s="59">
         <v>1</v>
       </c>
-      <c r="F68" s="60">
+      <c r="F68" s="61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8182,10 +8169,10 @@
       <c r="A69" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="C69" s="56" t="s">
         <v>152</v>
       </c>
       <c r="D69" s="1">
@@ -8194,7 +8181,7 @@
       <c r="E69" s="59">
         <v>13</v>
       </c>
-      <c r="F69" s="60">
+      <c r="F69" s="61">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -8206,10 +8193,10 @@
       <c r="A70" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="56" t="s">
         <v>154</v>
       </c>
       <c r="D70" s="1">
@@ -8218,7 +8205,7 @@
       <c r="E70" s="59">
         <v>8</v>
       </c>
-      <c r="F70" s="60">
+      <c r="F70" s="61">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -8230,10 +8217,10 @@
       <c r="A71" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="57" t="s">
+      <c r="C71" s="56" t="s">
         <v>157</v>
       </c>
       <c r="D71" s="1">
@@ -8242,7 +8229,7 @@
       <c r="E71" s="59">
         <v>10</v>
       </c>
-      <c r="F71" s="60">
+      <c r="F71" s="61">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8254,10 +8241,10 @@
       <c r="A72" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="56" t="s">
         <v>159</v>
       </c>
       <c r="D72" s="1">
@@ -8266,7 +8253,7 @@
       <c r="E72" s="59">
         <v>4</v>
       </c>
-      <c r="F72" s="60">
+      <c r="F72" s="61">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -8278,10 +8265,10 @@
       <c r="A73" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="57" t="s">
+      <c r="C73" s="56" t="s">
         <v>161</v>
       </c>
       <c r="D73" s="1">
@@ -8290,7 +8277,7 @@
       <c r="E73" s="59">
         <v>2</v>
       </c>
-      <c r="F73" s="60">
+      <c r="F73" s="61">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8302,10 +8289,10 @@
       <c r="A74" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="C74" s="56" t="s">
         <v>163</v>
       </c>
       <c r="D74" s="1">
@@ -8314,7 +8301,7 @@
       <c r="E74" s="59">
         <v>1</v>
       </c>
-      <c r="F74" s="60">
+      <c r="F74" s="61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8326,10 +8313,10 @@
       <c r="A75" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="56" t="s">
         <v>165</v>
       </c>
       <c r="D75" s="1">
@@ -8338,7 +8325,7 @@
       <c r="E75" s="59">
         <v>4</v>
       </c>
-      <c r="F75" s="60">
+      <c r="F75" s="61">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -8350,10 +8337,10 @@
       <c r="A76" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="56" t="s">
         <v>167</v>
       </c>
       <c r="D76" s="1">
@@ -8362,7 +8349,7 @@
       <c r="E76" s="59">
         <v>1</v>
       </c>
-      <c r="F76" s="60">
+      <c r="F76" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8374,10 +8361,10 @@
       <c r="A77" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="57" t="s">
+      <c r="C77" s="56" t="s">
         <v>169</v>
       </c>
       <c r="D77" s="1">
@@ -8386,7 +8373,7 @@
       <c r="E77" s="59">
         <v>4</v>
       </c>
-      <c r="F77" s="60">
+      <c r="F77" s="61">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -8398,10 +8385,10 @@
       <c r="A78" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="56" t="s">
         <v>171</v>
       </c>
       <c r="D78" s="1">
@@ -8410,7 +8397,7 @@
       <c r="E78" s="59">
         <v>9</v>
       </c>
-      <c r="F78" s="60">
+      <c r="F78" s="61">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -8422,10 +8409,10 @@
       <c r="A79" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="56" t="s">
         <v>174</v>
       </c>
       <c r="D79" s="1">
@@ -8434,7 +8421,7 @@
       <c r="E79" s="59">
         <v>1</v>
       </c>
-      <c r="F79" s="60">
+      <c r="F79" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8446,10 +8433,10 @@
       <c r="A80" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="57" t="s">
+      <c r="C80" s="56" t="s">
         <v>176</v>
       </c>
       <c r="D80" s="1">
@@ -8458,7 +8445,7 @@
       <c r="E80" s="59">
         <v>13</v>
       </c>
-      <c r="F80" s="60">
+      <c r="F80" s="61">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -8470,10 +8457,10 @@
       <c r="A81" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="56" t="s">
         <v>178</v>
       </c>
       <c r="D81" s="1">
@@ -8482,7 +8469,7 @@
       <c r="E81" s="59">
         <v>24</v>
       </c>
-      <c r="F81" s="60">
+      <c r="F81" s="61">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -8494,10 +8481,10 @@
       <c r="A82" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="C82" s="57" t="s">
+      <c r="C82" s="56" t="s">
         <v>181</v>
       </c>
       <c r="D82" s="1">
@@ -8506,7 +8493,7 @@
       <c r="E82" s="59">
         <v>4</v>
       </c>
-      <c r="F82" s="60">
+      <c r="F82" s="61">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8518,10 +8505,10 @@
       <c r="A83" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C83" s="57" t="s">
+      <c r="C83" s="56" t="s">
         <v>183</v>
       </c>
       <c r="D83" s="1">
@@ -8530,7 +8517,7 @@
       <c r="E83" s="59">
         <v>8</v>
       </c>
-      <c r="F83" s="60">
+      <c r="F83" s="61">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -8542,10 +8529,10 @@
       <c r="A84" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C84" s="56" t="s">
         <v>185</v>
       </c>
       <c r="D84" s="1">
@@ -8554,7 +8541,7 @@
       <c r="E84" s="59">
         <v>4</v>
       </c>
-      <c r="F84" s="60">
+      <c r="F84" s="61">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -8566,10 +8553,10 @@
       <c r="A85" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="56" t="s">
         <v>188</v>
       </c>
       <c r="D85" s="1">
@@ -8578,7 +8565,7 @@
       <c r="E85" s="59">
         <v>10</v>
       </c>
-      <c r="F85" s="60">
+      <c r="F85" s="61">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -8590,10 +8577,10 @@
       <c r="A86" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="57" t="s">
+      <c r="C86" s="56" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="1">
@@ -8602,7 +8589,7 @@
       <c r="E86" s="59">
         <v>12</v>
       </c>
-      <c r="F86" s="60">
+      <c r="F86" s="61">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -8614,10 +8601,10 @@
       <c r="A87" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="57" t="s">
+      <c r="C87" s="56" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="1">
@@ -8626,7 +8613,7 @@
       <c r="E87" s="59">
         <v>2</v>
       </c>
-      <c r="F87" s="60">
+      <c r="F87" s="61">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -8638,10 +8625,10 @@
       <c r="A88" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C88" s="56" t="s">
         <v>195</v>
       </c>
       <c r="D88" s="1">
@@ -8650,7 +8637,7 @@
       <c r="E88" s="59">
         <v>6</v>
       </c>
-      <c r="F88" s="60">
+      <c r="F88" s="61">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -8662,10 +8649,10 @@
       <c r="A89" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C89" s="56" t="s">
         <v>197</v>
       </c>
       <c r="D89" s="1">
@@ -8674,7 +8661,7 @@
       <c r="E89" s="59">
         <v>2</v>
       </c>
-      <c r="F89" s="60">
+      <c r="F89" s="61">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8686,10 +8673,10 @@
       <c r="A90" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="C90" s="56" t="s">
         <v>199</v>
       </c>
       <c r="D90" s="1">
@@ -8698,7 +8685,7 @@
       <c r="E90" s="59">
         <v>4</v>
       </c>
-      <c r="F90" s="60">
+      <c r="F90" s="61">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -8710,10 +8697,10 @@
       <c r="A91" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C91" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D91" s="1">
@@ -8722,7 +8709,7 @@
       <c r="E91" s="59">
         <v>2</v>
       </c>
-      <c r="F91" s="60">
+      <c r="F91" s="61">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8734,10 +8721,10 @@
       <c r="A92" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C92" s="56" t="s">
         <v>203</v>
       </c>
       <c r="D92" s="1">
@@ -8746,7 +8733,7 @@
       <c r="E92" s="59">
         <v>11</v>
       </c>
-      <c r="F92" s="60">
+      <c r="F92" s="61">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -8758,10 +8745,10 @@
       <c r="A93" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="57" t="s">
+      <c r="C93" s="56" t="s">
         <v>205</v>
       </c>
       <c r="D93" s="1">
@@ -8770,7 +8757,7 @@
       <c r="E93" s="59">
         <v>2</v>
       </c>
-      <c r="F93" s="60">
+      <c r="F93" s="61">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -8782,10 +8769,10 @@
       <c r="A94" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B94" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="C94" s="56" t="s">
         <v>207</v>
       </c>
       <c r="D94" s="1">
@@ -8794,7 +8781,7 @@
       <c r="E94" s="59">
         <v>1</v>
       </c>
-      <c r="F94" s="60">
+      <c r="F94" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8806,10 +8793,10 @@
       <c r="A95" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="55" t="s">
+      <c r="B95" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="C95" s="57" t="s">
+      <c r="C95" s="56" t="s">
         <v>209</v>
       </c>
       <c r="D95" s="1">
@@ -8818,7 +8805,7 @@
       <c r="E95" s="59">
         <v>2</v>
       </c>
-      <c r="F95" s="60">
+      <c r="F95" s="61">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -8830,10 +8817,10 @@
       <c r="A96" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B96" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="C96" s="56" t="s">
         <v>211</v>
       </c>
       <c r="D96" s="1">
@@ -8842,7 +8829,7 @@
       <c r="E96" s="59">
         <v>2</v>
       </c>
-      <c r="F96" s="60">
+      <c r="F96" s="61">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8854,10 +8841,10 @@
       <c r="A97" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C97" s="56" t="s">
         <v>213</v>
       </c>
       <c r="D97" s="1">
@@ -8866,7 +8853,7 @@
       <c r="E97" s="59">
         <v>1</v>
       </c>
-      <c r="F97" s="60">
+      <c r="F97" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8878,10 +8865,10 @@
       <c r="A98" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="C98" s="57" t="s">
+      <c r="C98" s="56" t="s">
         <v>215</v>
       </c>
       <c r="D98" s="1">
@@ -8890,7 +8877,7 @@
       <c r="E98" s="59">
         <v>20</v>
       </c>
-      <c r="F98" s="60">
+      <c r="F98" s="61">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -8902,10 +8889,10 @@
       <c r="A99" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="C99" s="56" t="s">
         <v>218</v>
       </c>
       <c r="D99" s="1">
@@ -8914,7 +8901,7 @@
       <c r="E99" s="59">
         <v>5</v>
       </c>
-      <c r="F99" s="60">
+      <c r="F99" s="61">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8926,10 +8913,10 @@
       <c r="A100" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="C100" s="56" t="s">
         <v>220</v>
       </c>
       <c r="D100" s="1">
@@ -8938,7 +8925,7 @@
       <c r="E100" s="59">
         <v>11</v>
       </c>
-      <c r="F100" s="60">
+      <c r="F100" s="61">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -8950,10 +8937,10 @@
       <c r="A101" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="C101" s="57" t="s">
+      <c r="C101" s="56" t="s">
         <v>222</v>
       </c>
       <c r="D101" s="1">
@@ -8962,7 +8949,7 @@
       <c r="E101" s="59">
         <v>3</v>
       </c>
-      <c r="F101" s="60">
+      <c r="F101" s="61">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -8974,10 +8961,10 @@
       <c r="A102" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B102" s="55" t="s">
+      <c r="B102" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="C102" s="56" t="s">
         <v>224</v>
       </c>
       <c r="D102" s="1">
@@ -8986,7 +8973,7 @@
       <c r="E102" s="59">
         <v>4</v>
       </c>
-      <c r="F102" s="60">
+      <c r="F102" s="61">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8998,10 +8985,10 @@
       <c r="A103" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="C103" s="57" t="s">
+      <c r="C103" s="56" t="s">
         <v>226</v>
       </c>
       <c r="D103" s="1">
@@ -9010,7 +8997,7 @@
       <c r="E103" s="59">
         <v>9</v>
       </c>
-      <c r="F103" s="60">
+      <c r="F103" s="61">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -9022,10 +9009,10 @@
       <c r="A104" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B104" s="55" t="s">
+      <c r="B104" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="C104" s="56" t="s">
         <v>228</v>
       </c>
       <c r="D104" s="1">
@@ -9034,7 +9021,7 @@
       <c r="E104" s="59">
         <v>4</v>
       </c>
-      <c r="F104" s="60">
+      <c r="F104" s="61">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -9046,10 +9033,10 @@
       <c r="A105" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="C105" s="57" t="s">
+      <c r="C105" s="56" t="s">
         <v>230</v>
       </c>
       <c r="D105" s="1">
@@ -9058,7 +9045,7 @@
       <c r="E105" s="59">
         <v>142</v>
       </c>
-      <c r="F105" s="60">
+      <c r="F105" s="61">
         <f t="shared" si="1"/>
         <v>426</v>
       </c>
@@ -9070,10 +9057,10 @@
       <c r="A106" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="C106" s="56" t="s">
         <v>232</v>
       </c>
       <c r="D106" s="1">
@@ -9082,7 +9069,7 @@
       <c r="E106" s="59">
         <v>4</v>
       </c>
-      <c r="F106" s="60">
+      <c r="F106" s="61">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -9094,10 +9081,10 @@
       <c r="A107" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="C107" s="56" t="s">
         <v>234</v>
       </c>
       <c r="D107" s="1">
@@ -9106,7 +9093,7 @@
       <c r="E107" s="59">
         <v>42</v>
       </c>
-      <c r="F107" s="60">
+      <c r="F107" s="61">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
@@ -9118,10 +9105,10 @@
       <c r="A108" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="C108" s="56" t="s">
         <v>237</v>
       </c>
       <c r="D108" s="1">
@@ -9130,7 +9117,7 @@
       <c r="E108" s="59">
         <v>3</v>
       </c>
-      <c r="F108" s="60">
+      <c r="F108" s="61">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -9142,15 +9129,15 @@
       <c r="A109" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="54">
         <v>3100</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="57" t="s">
         <v>128</v>
       </c>
       <c r="D109" s="3"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="6">
+      <c r="E109" s="60"/>
+      <c r="F109" s="62">
         <f>SUM(F59:F108)</f>
         <v>2460</v>
       </c>
